--- a/data/hotels_by_city/Houston/Houston_shard_682.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_682.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d10639059-Reviews-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-WoodSpring-Suites-Signature-Houston-IAH-Airport.h15178352.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,324 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r494693813-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>10639059</t>
+  </si>
+  <si>
+    <t>494693813</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I love the hotel it very clean. Nice size rooms they provide you with coffee  a nice size kitchen Wi-Fi ..The staff is awesome!!!!!! Renata the housekeeping supervisor was so nice to me I will stay again MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>I love the hotel it very clean. Nice size rooms they provide you with coffee  a nice size kitchen Wi-Fi ..The staff is awesome!!!!!! Renata the housekeeping supervisor was so nice to me I will stay again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r491381567-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491381567</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>wonderful extended stay hotel</t>
+  </si>
+  <si>
+    <t>The rooms are good size! Love the dishwasher!! Staff is very friendly and accommodates any needs that cimes up regarding the room! Very quiet very peaceful!! No issues at all!! Would recommend this hotel! Beds are comfy and showers are wonderful and hot!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are good size! Love the dishwasher!! Staff is very friendly and accommodates any needs that cimes up regarding the room! Very quiet very peaceful!! No issues at all!! Would recommend this hotel! Beds are comfy and showers are wonderful and hot!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r486640155-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>486640155</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Ok, but not impressed</t>
+  </si>
+  <si>
+    <t>We stayed here one night because it was close to a location I was working at.  Pros:The price seemed goodThe room was pretty cleanThe hotel was fairly newStaff was nice and helpfulCons:The bed was very small and not at all comfortableAlthough advertisement says a full "Kitchenette" don't show up expecting anything...no dishes...not even a coffee cup, knife/spoon/fork, plate or paper towel!  We've stayed at "extended stay" hotels before and they ALL had at least paper towels and a coffee cup.Based on this experience, we don't plan to ever stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here one night because it was close to a location I was working at.  Pros:The price seemed goodThe room was pretty cleanThe hotel was fairly newStaff was nice and helpfulCons:The bed was very small and not at all comfortableAlthough advertisement says a full "Kitchenette" don't show up expecting anything...no dishes...not even a coffee cup, knife/spoon/fork, plate or paper towel!  We've stayed at "extended stay" hotels before and they ALL had at least paper towels and a coffee cup.Based on this experience, we don't plan to ever stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r472898493-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>472898493</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>A must for travelers. Great place, great people!</t>
+  </si>
+  <si>
+    <t>I'm a Project Manager for TowerComm and my family just relocated to Houston and this is the place we choose. I have traveled all over the country for business and this is by far the best value around. The rooms are extremely clean, the staff is very friendly and professional, and genuinely good hearted people. Jessica and Trina are outstanding individuals and make every effort to insure a pleasant stay. I would recommend Woodspring suites to any traveler whether it be business or pleasure. I know from now on I will be looking for Woodspring suites wherever I travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2017</t>
+  </si>
+  <si>
+    <t>I'm a Project Manager for TowerComm and my family just relocated to Houston and this is the place we choose. I have traveled all over the country for business and this is by far the best value around. The rooms are extremely clean, the staff is very friendly and professional, and genuinely good hearted people. Jessica and Trina are outstanding individuals and make every effort to insure a pleasant stay. I would recommend Woodspring suites to any traveler whether it be business or pleasure. I know from now on I will be looking for Woodspring suites wherever I travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r468091078-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>468091078</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Has potential, but.....</t>
+  </si>
+  <si>
+    <t>Brand new and very clean. Checked in late and could not find anyone at the front desk. After waiting for what seemed an eternity, a maintenance man had to try to check us in. Poor guy didn't have a clue, but he tried.Once in the room, I was more than ready for a hot shower, but to my surprise, there was no shower curtain. I knew it was pointless to try calling the front desk. Anyways, beds were comfy, place was clean. No iron, no coffee maker.   MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Brand new and very clean. Checked in late and could not find anyone at the front desk. After waiting for what seemed an eternity, a maintenance man had to try to check us in. Poor guy didn't have a clue, but he tried.Once in the room, I was more than ready for a hot shower, but to my surprise, there was no shower curtain. I knew it was pointless to try calling the front desk. Anyways, beds were comfy, place was clean. No iron, no coffee maker.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r450768253-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>450768253</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Best place to stay!</t>
+  </si>
+  <si>
+    <t>Jessica and Kristin are reallyNice and make everything easy for me during mine and my wife's stay!  The hotel is very clean and comfortable and the housekeeping staff is awesome!  We have been here for months and have had no problems whatsoever!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Jessica and Kristin are reallyNice and make everything easy for me during mine and my wife's stay!  The hotel is very clean and comfortable and the housekeeping staff is awesome!  We have been here for months and have had no problems whatsoever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r445605387-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>445605387</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Great staff and rooms.</t>
+  </si>
+  <si>
+    <t>Front desk and staff were amazing. They made my stay very pleasant.   Rooms were clean as a whistle and cozy. Low noise area and rooms shut out the sound of the airport. I will  definitely book here when I return. Thanks to the staff!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Front desk and staff were amazing. They made my stay very pleasant.   Rooms were clean as a whistle and cozy. Low noise area and rooms shut out the sound of the airport. I will  definitely book here when I return. Thanks to the staff!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r445102193-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>445102193</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>GREAT!</t>
+  </si>
+  <si>
+    <t>A great hotel, the building is very clean, &amp; quiet! Great, friendly staff.. the young lady  at the front desk was very helpful. I loved my room, and the bed is soo comfortable and again room was very nice clean. This is a good spot, right next to the airport, in Houston, and plenty of food around this location and a mall. a must stay hotel! I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>A great hotel, the building is very clean, &amp; quiet! Great, friendly staff.. the young lady  at the front desk was very helpful. I loved my room, and the bed is soo comfortable and again room was very nice clean. This is a good spot, right next to the airport, in Houston, and plenty of food around this location and a mall. a must stay hotel! I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r435644579-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>435644579</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>loved this place</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 5 weeks. Everyone was super nice. i would like to thank Robert, Kristin, John, Trina, Renatta and Shawntell for making our stay very comfortable. We miss you guys. Thanks for everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 5 weeks. Everyone was super nice. i would like to thank Robert, Kristin, John, Trina, Renatta and Shawntell for making our stay very comfortable. We miss you guys. Thanks for everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r430613668-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>430613668</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Seriously everything was so amazing. The only thing that could be better was the size of the bathtub. Micheal the desk clerk came down at midnight when we finally got in from Georgia, all around for what you pay. Amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Seriously everything was so amazing. The only thing that could be better was the size of the bathtub. Micheal the desk clerk came down at midnight when we finally got in from Georgia, all around for what you pay. Amazing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r429758332-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>429758332</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Great place, friendly staff</t>
+  </si>
+  <si>
+    <t>The front desk staff has been very friendly and has made sure that my stay has been comfortable. They made sure my work packages were given to me when they caught me coming in each day and always greeted with a smile. The rooms are clean, the beds are comfortable, nice flat screen TVs, full size fridge, microwave and cook top. There's even a dishwasher. Even the trash can in front of the doors outside is kept clean. The attention to detail is noticeable here. It's also in a convenient location right near several major highways. It was nice being able to avoid the traffic of Houston. Also, there's a Pappa's BBQ down the street with a drive thru window...12 dollar dinner plates and 3 dollar awesome breakfast tacos. Treat yo self!MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff has been very friendly and has made sure that my stay has been comfortable. They made sure my work packages were given to me when they caught me coming in each day and always greeted with a smile. The rooms are clean, the beds are comfortable, nice flat screen TVs, full size fridge, microwave and cook top. There's even a dishwasher. Even the trash can in front of the doors outside is kept clean. The attention to detail is noticeable here. It's also in a convenient location right near several major highways. It was nice being able to avoid the traffic of Houston. Also, there's a Pappa's BBQ down the street with a drive thru window...12 dollar dinner plates and 3 dollar awesome breakfast tacos. Treat yo self!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r427287997-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>427287997</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>We are enjoying our stay. Our room, 109 is in a prime location. Kristin and Robert are a pleasure. They are eager to help and make sure all of your needs are met. They make you feel like you are visiting old friends or family. I would visit again. Thanks guys.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>We are enjoying our stay. Our room, 109 is in a prime location. Kristin and Robert are a pleasure. They are eager to help and make sure all of your needs are met. They make you feel like you are visiting old friends or family. I would visit again. Thanks guys.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +856,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +888,831 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_682.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_682.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r578974094-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>10639059</t>
+  </si>
+  <si>
+    <t>578974094</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Just s get away....</t>
+  </si>
+  <si>
+    <t>I had a comfortable experience there,The Desk clerk Shermail,was very helpful and pleasant as well,. Love that the rooms had a kitchenette and Fitness center. If your visiting Houston,Please check them out   I'll be visiting again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>I had a comfortable experience there,The Desk clerk Shermail,was very helpful and pleasant as well,. Love that the rooms had a kitchenette and Fitness center. If your visiting Houston,Please check them out   I'll be visiting again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r563182727-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>563182727</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Poor customer service</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel I was greeted by the smell of musty, wet dog and cigarette smoke.  So my visit did not start out with a good first impression.I booked a 2 queen suite for 2/23 &amp; 2/24, we arrived at the hotel at approximately 8pm and were told that they didn't have a 2 queen room for us, but could give us a king room.  I was traveling with a business associate and this would not have been an appropriate situation.  I showed the front desk clerk my confirmation for a 2 queen room and was told they had given all those rooms away. I informed her that I had a confirmation for the room, and showed her the confirmation email for the room  I wanted and she went to the back to talk to her manager, came out and told me sorry all they had was a king suite.So, we never got a chance to stay here and had to travel an additional 15 miles to find a hotel with a room available for both nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel I was greeted by the smell of musty, wet dog and cigarette smoke.  So my visit did not start out with a good first impression.I booked a 2 queen suite for 2/23 &amp; 2/24, we arrived at the hotel at approximately 8pm and were told that they didn't have a 2 queen room for us, but could give us a king room.  I was traveling with a business associate and this would not have been an appropriate situation.  I showed the front desk clerk my confirmation for a 2 queen room and was told they had given all those rooms away. I informed her that I had a confirmation for the room, and showed her the confirmation email for the room  I wanted and she went to the back to talk to her manager, came out and told me sorry all they had was a king suite.So, we never got a chance to stay here and had to travel an additional 15 miles to find a hotel with a room available for both nights.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r494693813-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>10639059</t>
-  </si>
-  <si>
     <t>494693813</t>
   </si>
   <si>
@@ -174,9 +234,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded June 23, 2017</t>
   </si>
   <si>
@@ -204,9 +261,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded June 10, 2017</t>
   </si>
   <si>
@@ -240,6 +294,60 @@
     <t>We stayed here one night because it was close to a location I was working at.  Pros:The price seemed goodThe room was pretty cleanThe hotel was fairly newStaff was nice and helpfulCons:The bed was very small and not at all comfortableAlthough advertisement says a full "Kitchenette" don't show up expecting anything...no dishes...not even a coffee cup, knife/spoon/fork, plate or paper towel!  We've stayed at "extended stay" hotels before and they ALL had at least paper towels and a coffee cup.Based on this experience, we don't plan to ever stay here again.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r474378380-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>474378380</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Best place I've ever stayed</t>
+  </si>
+  <si>
+    <t>The staff is top notch, very friendly, clean, attentive and welcoming. The rooms are nice sized, comfortable and the lights go out by themselves if no movement is detected after a while, pretty neat! Loved it! Will definitely stay here next year for my annual trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>The staff is top notch, very friendly, clean, attentive and welcoming. The rooms are nice sized, comfortable and the lights go out by themselves if no movement is detected after a while, pretty neat! Loved it! Will definitely stay here next year for my annual trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r473732830-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>473732830</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed one night here on the way to Galveston cruise port.  Arrived late, checked in and to the nice, clean room.  NO CARPET!!! And that's a great thing to us. These are set up for guests that would need a kitchenette.  The room is so clean and fresh.  Near the airport but still quite.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>mlindsay11, Public Relations Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night here on the way to Galveston cruise port.  Arrived late, checked in and to the nice, clean room.  NO CARPET!!! And that's a great thing to us. These are set up for guests that would need a kitchenette.  The room is so clean and fresh.  Near the airport but still quite.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r472898493-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -321,6 +429,42 @@
     <t>Jessica and Kristin are reallyNice and make everything easy for me during mine and my wife's stay!  The hotel is very clean and comfortable and the housekeeping staff is awesome!  We have been here for months and have had no problems whatsoever!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r447807039-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>447807039</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing place to stay </t>
+  </si>
+  <si>
+    <t>My husband and I have been staying here for a few months and this place is so comfortable.  It's super clean and the staff is not only professional but very nice and caring as well!  The price is also very affordable!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>My husband and I have been staying here for a few months and this place is so comfortable.  It's super clean and the staff is not only professional but very nice and caring as well!  The price is also very affordable!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r447636325-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>447636325</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Eric Garcia</t>
+  </si>
+  <si>
+    <t>The manager Jessica was very helpful and had great customer service. She told me places to visit and places to eat. I enjoyed my stay I was very comfortable and I saw that the rooms smelled and was very clean.  It was very quite hotel and it's new the price was great.  I will be back next time I work in the area. I have stayed at a few WoodSprings for work and all have great customer service and clean but this one has a gym.They only thing I wish they had was coffee and breakfast but there are kitchens in the room. I give this place kuddos!!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r445605387-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -336,9 +480,6 @@
     <t>Front desk and staff were amazing. They made my stay very pleasant.   Rooms were clean as a whistle and cozy. Low noise area and rooms shut out the sound of the airport. I will  definitely book here when I return. Thanks to the staff!!!MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded December 20, 2016</t>
   </si>
   <si>
@@ -363,9 +504,6 @@
     <t>A great hotel, the building is very clean, &amp; quiet! Great, friendly staff.. the young lady  at the front desk was very helpful. I loved my room, and the bed is soo comfortable and again room was very nice clean. This is a good spot, right next to the airport, in Houston, and plenty of food around this location and a mall. a must stay hotel! I will be back!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>A great hotel, the building is very clean, &amp; quiet! Great, friendly staff.. the young lady  at the front desk was very helpful. I loved my room, and the bed is soo comfortable and again room was very nice clean. This is a good spot, right next to the airport, in Houston, and plenty of food around this location and a mall. a must stay hotel! I will be back!More</t>
   </si>
   <si>
@@ -396,6 +534,57 @@
     <t>My husband and I stayed here for 5 weeks. Everyone was super nice. i would like to thank Robert, Kristin, John, Trina, Renatta and Shawntell for making our stay very comfortable. We miss you guys. Thanks for everything.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r431799865-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>431799865</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>We love it</t>
+  </si>
+  <si>
+    <t>This hotel is AMAZING...... The staff is SOOOOOO super friendly.. It is our home for a bit and it is AWESOME... I recommend this hotel to EVERYONE..It is located right but eateries and the hwy ... Fast to get to the airport cause it's a straight shotMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is AMAZING...... The staff is SOOOOOO super friendly.. It is our home for a bit and it is AWESOME... I recommend this hotel to EVERYONE..It is located right but eateries and the hwy ... Fast to get to the airport cause it's a straight shotMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r431685783-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>431685783</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WoodSpring Suites-IAH Airport Humble Tx </t>
+  </si>
+  <si>
+    <t>This Location is great! There are at least three ways to enter the Woodspring Suites Signature Houston IAH Airport. Easy access from a busy frontage road. Parking is good as well! The staff are very friendly, efficient and courteous! They have exceeded my expectations!! This Location is pristine and quiet! The laundry area is very nice and the machines accept coins or a debit card! Convenience! The staff are friendly from the maintenance, front desk, housekeeping, and management! The room has a fully equipped kitchen. The storage is sufficient and the room beautifully decorated.  The Location is great for easy access to major highways, restaurants, shopping, grocery stores, and Starbucks. ️. Thanks to the staff for making my stay a delightful experience. Perfect for a getaway or work travel! Lisa Johnson MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>This Location is great! There are at least three ways to enter the Woodspring Suites Signature Houston IAH Airport. Easy access from a busy frontage road. Parking is good as well! The staff are very friendly, efficient and courteous! They have exceeded my expectations!! This Location is pristine and quiet! The laundry area is very nice and the machines accept coins or a debit card! Convenience! The staff are friendly from the maintenance, front desk, housekeeping, and management! The room has a fully equipped kitchen. The storage is sufficient and the room beautifully decorated.  The Location is great for easy access to major highways, restaurants, shopping, grocery stores, and Starbucks. ️. Thanks to the staff for making my stay a delightful experience. Perfect for a getaway or work travel! Lisa Johnson More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r430613668-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -411,15 +600,6 @@
     <t>Seriously everything was so amazing. The only thing that could be better was the size of the bathtub. Micheal the desk clerk came down at midnight when we finally got in from Georgia, all around for what you pay. Amazing.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded October 26, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 26, 2016</t>
-  </si>
-  <si>
     <t>Seriously everything was so amazing. The only thing that could be better was the size of the bathtub. Micheal the desk clerk came down at midnight when we finally got in from Georgia, all around for what you pay. Amazing.More</t>
   </si>
   <si>
@@ -463,6 +643,51 @@
   </si>
   <si>
     <t>We are enjoying our stay. Our room, 109 is in a prime location. Kristin and Robert are a pleasure. They are eager to help and make sure all of your needs are met. They make you feel like you are visiting old friends or family. I would visit again. Thanks guys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r427054790-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>427054790</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Beautiful, modern hotel &amp; outstanding customer service</t>
+  </si>
+  <si>
+    <t>WoodSpring Suites Signature Hotel is a beautifully modern extended stay hotel with outstanding customer service!!!The facilities are clean, the amenities are great &amp; the hotel management, staff &amp; even fellow guests make one feel like you are staying with family.This hotel is the absolute GOLD STANDARD in extended stay hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>WoodSpring Suites Signature Hotel is a beautifully modern extended stay hotel with outstanding customer service!!!The facilities are clean, the amenities are great &amp; the hotel management, staff &amp; even fellow guests make one feel like you are staying with family.This hotel is the absolute GOLD STANDARD in extended stay hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10639059-r415758730-WoodSpring_Suites_Signature_Houston_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>415758730</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Needed a place at the last minute</t>
+  </si>
+  <si>
+    <t>I had my a/c at home go out with no warning so I had to find a place for possibly a week. I had heard of extended stay places but have never been to one. This location hasn't been opened long and was close to home so it worked out great. The staff was very nice and helpful, the room was clean and homey. I would definitely stay here again or recommend to anybody in need. There was no problems with the parking and the lot was lit up at night in case you were out after dark.  All in all I was pleased with the service when I ended up checking out a bit early than planned.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Signature Houston IAH Airport, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>I had my a/c at home go out with no warning so I had to find a place for possibly a week. I had heard of extended stay places but have never been to one. This location hasn't been opened long and was close to home so it worked out great. The staff was very nice and helpful, the room was clean and homey. I would definitely stay here again or recommend to anybody in need. There was no problems with the parking and the lot was lit up at night in case you were out after dark.  All in all I was pleased with the service when I ended up checking out a bit early than planned.More</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1283,7 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
@@ -1071,7 +1296,9 @@
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1119,13 +1346,13 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1137,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1159,7 +1386,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1168,47 +1395,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
         <v>62</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1224,7 +1447,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1233,25 +1456,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1314,12 +1537,18 @@
       <c r="O7" t="s">
         <v>62</v>
       </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1370,10 +1599,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
         <v>106</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1431,19 +1660,17 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -1452,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1474,7 +1701,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1483,49 +1710,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -1541,7 +1762,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1550,47 +1771,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
         <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -1606,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1615,22 +1832,22 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
         <v>62</v>
@@ -1645,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -1667,7 +1884,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1676,25 +1893,25 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>131</v>
-      </c>
       <c r="O13" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1705,14 +1922,642 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>146</v>
-      </c>
-      <c r="X13" t="s">
-        <v>147</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>214</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65476</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
